--- a/Stock-Analysis/MSFT/MSFT.xlsx
+++ b/Stock-Analysis/MSFT/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/MSFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{7A6CE446-B20A-4930-B45C-FBB31472D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B0428F-17E1-4ADD-9213-9A5F1AA53FFE}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{7A6CE446-B20A-4930-B45C-FBB31472D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1998421-61D6-49CB-8AC7-4F266BF3FF5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="IOV" sheetId="4" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Pivot</t>
-  </si>
-  <si>
     <t>YOC</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>CtoR</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -500,6 +500,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,9 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -526,6 +526,9 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -533,9 +536,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -554,29 +554,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -707,6 +684,29 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -870,14 +870,14 @@
     <tableColumn id="1" xr3:uid="{5FDF1320-5B10-468E-A1FB-4CC34F988AF8}" name="Year"/>
     <tableColumn id="2" xr3:uid="{2B1F9B0E-2EB4-4DD7-B95A-42CBBE4E9A26}" name="Coupon" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{D308901E-3D1D-4651-9545-7A88D9560738}" name="Revenue" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{F8D5CBD2-C854-43E6-98C3-6FCD800ECAB2}" name="PriceMedian" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{AEF28D91-88D1-4D6B-8C5A-9FAB8D0651EC}" name="YOC" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F8D5CBD2-C854-43E6-98C3-6FCD800ECAB2}" name="PriceMedian" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{AEF28D91-88D1-4D6B-8C5A-9FAB8D0651EC}" name="YOC" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B71715D7-F5E8-42E7-93CA-1A9118BEE218}" name="CtoR" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0AAEB76C-BF5C-4E7E-832E-E2D6EFA2F774}" name="P/R" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{0AAEB76C-BF5C-4E7E-832E-E2D6EFA2F774}" name="P/R" dataDxfId="0">
       <calculatedColumnFormula>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -914,32 +914,32 @@
     <tableColumn id="2" xr3:uid="{0100CB9B-0B1E-4AE3-A93A-157826699440}" name="Revenue" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{8995E4D4-8874-461E-93C5-327ACC075324}" name="COGS" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{CF0B1E73-E41D-40D1-BBF1-13908B9B0BB1}" name="GrossProfit" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{CBBA3C59-2213-45FC-9426-A68FF4739382}" name="GPM" dataDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[GrossProfit]]/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBED7933-CE88-4919-98AC-D952F483A7DC}" name="OperatingProfit" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{05C2A352-ECAB-468A-89F8-6C1DCCAB2D7C}" name="OPEX" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{BBED7933-CE88-4919-98AC-D952F483A7DC}" name="OperatingProfit" dataDxfId="24" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{05C2A352-ECAB-468A-89F8-6C1DCCAB2D7C}" name="OPEX" dataDxfId="23" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{1FE6E753-9C99-4EE3-AF59-80A8E0984E8C}" name="OPM" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[OperatingProfit]]/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{6F33ACA0-58FC-4A42-AE23-29CB12B46808}" name="NetProfit" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{C35EB3C6-5BDB-4D32-AE01-CD9DB9910314}" name="NetMargin" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[NetProfit]]/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{F0364200-1EE9-45E1-B7A7-2B6C5AC7A838}" name="CashFromOps" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CfoMargin" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{0119C3F0-E3BA-465F-BA8C-1C6E43BFD01B}" name="CfoMargin" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[CashFromOps]]/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{A8179D66-84F1-4F36-8FB7-10813A416F83}" name="CAPEX" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="14" xr3:uid="{AA40C489-FB64-4695-8679-DF4FA0272927}" name="CapexMargin" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(Table4[[#This Row],[CAPEX]])/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{343D3F24-35EA-43E4-9FF6-71A091DF978D}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FcfMargin" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="16" xr3:uid="{A0353AB7-F60E-4E4E-9A76-3F64464B1E0E}" name="FcfMargin" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[FCF]]/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{06343001-9D9F-49FB-B0BE-9993266C63C8}" name="Dividends" dataCellStyle="Currency"/>
-    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{94B42F0E-2425-4CD1-A347-8FD257F65F7A}" name="DivMargin" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(Table4[[#This Row],[Dividends]])/Table4[[#This Row],[Revenue]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -953,17 +953,17 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{62EBC43D-E479-41D4-A87F-392537BB888A}" name="Fiscal Year"/>
     <tableColumn id="2" xr3:uid="{B44E26B7-745B-4E98-BAD6-D6759FA4E6D3}" name="Revenue" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{31DA2C1C-1A18-4F1F-8232-E22513D7E82A}" name="RevGro" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{31DA2C1C-1A18-4F1F-8232-E22513D7E82A}" name="RevGro" dataDxfId="16">
       <calculatedColumnFormula>(Table3[[#This Row],[Revenue]]-C2)/C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{79A83570-1D08-4443-87B5-EFEA379F44BA}" name="Dividend" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{B08B3DDE-5371-43E8-88E6-73F4DB97A997}" name="DivGro" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B08B3DDE-5371-43E8-88E6-73F4DB97A997}" name="DivGro" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{D664DDA8-9C6C-4B70-A797-ED5F663E1A6C}" name="DivPerShare" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{94011229-06CB-408C-946F-E5B01E7FF392}" name="DPSGro" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{94011229-06CB-408C-946F-E5B01E7FF392}" name="DPSGro" dataDxfId="14" dataCellStyle="Percent"/>
     <tableColumn id="8" xr3:uid="{2D92246E-BF59-46D6-A0EC-301AE06C6133}" name="MarketValue" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{E0E68D77-A6DE-4D09-841B-3422686E1A84}" name="MVGro" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{E0E68D77-A6DE-4D09-841B-3422686E1A84}" name="MVGro" dataDxfId="13" dataCellStyle="Percent"/>
     <tableColumn id="10" xr3:uid="{B0D51114-3CC5-4A00-9EB3-FC1FE1BD06C4}" name="SharesOutstanding" dataCellStyle="Currency"/>
-    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{58A6D5ED-FBAA-4549-8852-30F681A965E9}" name="ShareGro" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,11 +1005,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}" name="Table17" displayName="Table17" ref="C6:D36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
   <autoFilter ref="C6:D36" xr:uid="{6B075F70-03FD-4F18-974B-6A1E42927185}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17720CF0-4C15-4B55-BC81-0E3781C7BF22}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{01BA4252-FBF2-4A6D-B5F6-D6E00AA2DE50}" name="FV" dataDxfId="9">
       <calculatedColumnFormula>$D$4*(1+$D$5)^C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1018,11 +1018,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}" name="Table1815" displayName="Table1815" ref="G6:H36" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="G6:H36" xr:uid="{503BFDBB-B7BD-4D9C-A28E-B70077814031}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{56FDB9CA-94AE-4A82-9B0D-0C0A9E6D92D9}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{B2FB668A-126F-47CB-BD30-804E63E9DC1D}" name="FV" dataDxfId="7">
       <calculatedColumnFormula>$H$4/(1+$H$5)^G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1031,11 +1031,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}" name="Table1811" displayName="Table1811" ref="K6:L36" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="K6:L36" xr:uid="{3ED64007-492B-456F-8063-EF02A084B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B2C27D7-EBA6-4D7A-AFDB-FED4AF0B645A}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{92AF3836-C75C-4E36-8604-B5FA0784AC0B}" name="Rate" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>($L$4/$L$5)^(1/K7)-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="7">
         <v>2.13</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
         <v>2.2200000000000002</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
         <v>2.98</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
         <v>5.01</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8" s="7">
         <v>6.92</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9" s="7">
         <v>14.87</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
         <v>22.8</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7">
         <v>30.72</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" s="7">
         <v>20.75</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
         <v>24.31</v>
@@ -2107,7 +2107,7 @@
         <v>1.24562105288677E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="7">
         <v>21.42</v>
@@ -2172,7 +2172,7 @@
         <v>2.2816410886549399E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="7">
         <v>24.15</v>
@@ -2237,7 +2237,7 @@
         <v>1.24392618887731E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="7">
         <v>23.92</v>
@@ -2302,7 +2302,7 @@
         <v>1.3407821229050199E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="7">
         <v>21.51</v>
@@ -2367,7 +2367,7 @@
         <v>1.33734536944165E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N18" s="7">
         <v>22.26</v>
@@ -2432,7 +2432,7 @@
         <v>1.5930485155684199E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7">
         <v>26.99</v>
@@ -2497,7 +2497,7 @@
         <v>2.22269969564723E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" s="7">
         <v>15.15</v>
@@ -2562,7 +2562,7 @@
         <v>2.0038535645471998E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N21" s="7">
         <v>22.39</v>
@@ -2627,7 +2627,7 @@
         <v>2.4801396009598999E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7">
         <v>23.16</v>
@@ -2692,7 +2692,7 @@
         <v>2.6688925987757298E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N23" s="7">
         <v>23.98</v>
@@ -2757,7 +2757,7 @@
         <v>2.8871809316333399E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" s="7">
         <v>26.37</v>
@@ -2822,7 +2822,7 @@
         <v>2.6800671551370701E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N25" s="7">
         <v>31.15</v>
@@ -2887,7 +2887,7 @@
         <v>2.68485693880346E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" s="7">
         <v>40.29</v>
@@ -2952,7 +2952,7 @@
         <v>2.6217705204956299E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N27" s="7">
         <v>40.47</v>
@@ -3017,7 +3017,7 @@
         <v>2.20121348948779E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N28" s="7">
         <v>51.16</v>
@@ -3082,7 +3082,7 @@
         <v>1.7033356990773501E-2</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N29" s="7">
         <v>68.17</v>
@@ -3147,7 +3147,7 @@
         <v>1.3654155004406201E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N30" s="7">
         <v>94.13</v>
@@ -3212,7 +3212,7 @@
         <v>1.0457516339869201E-2</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N31" s="7">
         <v>132.21</v>
@@ -3277,7 +3277,7 @@
         <v>8.0773114092023597E-3</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32" s="7">
         <v>200.39</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>2758.7</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>3753</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>4649</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>5937</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>8671</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>11936</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>15262</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>19747</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>22956</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>25296</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>28365</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>32187</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>36835</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>39788</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>44282</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>51122</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>60420</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>58437</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>62484</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>69943</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>73723</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>77849</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>86833</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>93580</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5">
         <v>91154</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5">
         <v>96571</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5">
         <v>110360</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5">
         <v>125843</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="5">
         <v>143015</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5">
         <v>168088</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>2758.7</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>3753</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>4649</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>5937</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>8671</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>11936</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>15262</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>19747</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>22956</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>25296</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>28365</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>32187</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>36835</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>39788</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>44282</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>51122</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>60420</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>58437</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>62484</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>69943</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>73723</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>77849</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>86833</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>93580</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5">
         <v>91154</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5">
         <v>96571</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5">
         <v>110360</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5">
         <v>125843</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="5">
         <v>143015</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5">
         <v>168088</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>265.10000000000002</v>
@@ -6719,7 +6719,7 @@
         <v>130.10000000000002</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="5">
         <v>907</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>436</v>
@@ -6767,7 +6767,7 @@
         <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5">
         <v>1074</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>431</v>
@@ -6815,7 +6815,7 @@
         <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5">
         <v>1593</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>332</v>
@@ -6863,7 +6863,7 @@
         <v>-317</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="5">
         <v>1990</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>504</v>
@@ -6911,7 +6911,7 @@
         <v>-757</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5">
         <v>3719</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>1819</v>
@@ -6959,7 +6959,7 @@
         <v>-1297</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5">
         <v>4689</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>1497</v>
@@ -7007,7 +7007,7 @@
         <v>-999</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="5">
         <v>8433</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>2116</v>
@@ -7055,7 +7055,7 @@
         <v>-862</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5">
         <v>13137</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>2717</v>
@@ -7103,7 +7103,7 @@
         <v>-2192</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="5">
         <v>11426</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>1620</v>
@@ -7151,7 +7151,7 @@
         <v>-5821</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5">
         <v>13422</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>1497</v>
@@ -7199,7 +7199,7 @@
         <v>-4572</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="5">
         <v>14509</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>2120</v>
@@ -7247,7 +7247,7 @@
         <v>-5223</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="5">
         <v>15797</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>2748</v>
@@ -7295,7 +7295,7 @@
         <v>-2364</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5">
         <v>14626</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>3109</v>
@@ -7343,7 +7343,7 @@
         <v>-41060</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="5">
         <v>16605</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>2101</v>
@@ -7391,7 +7391,7 @@
         <v>-20651</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="5">
         <v>14404</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>6782</v>
@@ -7439,7 +7439,7 @@
         <v>-24598</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="5">
         <v>17796</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>3494</v>
@@ -7487,7 +7487,7 @@
         <v>-13054</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="5">
         <v>21612</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>579</v>
@@ -7535,7 +7535,7 @@
         <v>-13242</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="5">
         <v>19037</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>2311</v>
@@ -7583,7 +7583,7 @@
         <v>-13536</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="5">
         <v>24073</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>2422</v>
@@ -7631,7 +7631,7 @@
         <v>-14313</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="5">
         <v>26994</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>1913</v>
@@ -7679,7 +7679,7 @@
         <v>-9501</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="5">
         <v>31626</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>931</v>
@@ -7727,7 +7727,7 @@
         <v>-11884</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="5">
         <v>28833</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>607</v>
@@ -7775,7 +7775,7 @@
         <v>-15588</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="5">
         <v>32502</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>634</v>
@@ -7823,7 +7823,7 @@
         <v>-23691</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="5">
         <v>29668</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5">
         <v>668</v>
@@ -7871,7 +7871,7 @@
         <v>-26307</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="5">
         <v>33325</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5">
         <v>772</v>
@@ -7919,7 +7919,7 @@
         <v>-22861</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="5">
         <v>39507</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5">
         <v>1002</v>
@@ -7967,7 +7967,7 @@
         <v>-22418</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="5">
         <v>43884</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5">
         <v>1142</v>
@@ -8015,7 +8015,7 @@
         <v>-32212</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J30" s="5">
         <v>52185</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="5">
         <v>1343</v>
@@ -8063,7 +8063,7 @@
         <v>-36762</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" s="5">
         <v>60675</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5">
         <v>1693</v>
@@ -8111,7 +8111,7 @@
         <v>-42213</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="5">
         <v>76740</v>
@@ -8161,26 +8161,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="H2" s="35"/>
+      <c r="K2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
@@ -8952,7 +8952,7 @@
   <dimension ref="B2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8978,28 +8978,28 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="K2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -9022,7 +9022,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>2.7045300878972278E-2</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.7863421230561176</v>
       </c>
@@ -9084,7 +9084,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>4.732327713694174E-2</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.0538302277432727</v>
       </c>
@@ -9156,7 +9156,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.0518092105263159</v>
       </c>
@@ -9228,7 +9228,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.0856123662306781E-2</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>6.3995243757431632</v>
       </c>
@@ -9260,12 +9260,12 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.5420614968091271E-2</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>5.7880487333204407</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -9292,12 +9292,12 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>6.7398119122257058E-2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>4.3291536050156738</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2" t="e">
         <f>L4/$L5</f>
@@ -9365,7 +9365,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.6970443349753684E-2</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>3.6014470443349751</v>
       </c>
@@ -9391,7 +9391,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.4296328046863841E-2</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>3.8326903843406201</v>
       </c>
@@ -9417,22 +9417,22 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.4938574938574934E-2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>3.1818181818181812</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -9455,7 +9455,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.7688935040959967E-2</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>3.4585208261220726</v>
       </c>
@@ -9481,7 +9481,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>9.6833859210096823E-2</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>3.5921009683385918</v>
       </c>
@@ -9518,7 +9518,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.10350164441864966</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>4.0515573611917199</v>
       </c>
@@ -9555,7 +9555,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.10672076203916035</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>4.0774387017110598</v>
       </c>
@@ -9582,7 +9582,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.12218706047819972</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>4.8439697609001406</v>
       </c>
@@ -9609,7 +9609,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.12408759124087591</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>5.747769667477697</v>
       </c>
@@ -9646,7 +9646,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.11652542372881355</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>7.1440677966101696</v>
       </c>
@@ -9672,7 +9672,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.11089206505667817</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>8.3304583538689005</v>
       </c>
@@ -9698,7 +9698,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>0.10690877833888471</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>10.847211776082517</v>
       </c>
@@ -9724,7 +9724,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>9.9121933556621702E-2</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>12.551824024622068</v>
       </c>
@@ -9750,7 +9750,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="31">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>11.9664</v>
       </c>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="37"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="2" t="e">
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>#DIV/0!</v>
@@ -9770,7 +9770,7 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[Revenue]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="36" t="e">
+      <c r="H23" s="31" t="e">
         <f>Table7[[#This Row],[PriceMedian]]/Table7[[#This Row],[Revenue]]</f>
         <v>#DIV/0!</v>
       </c>

--- a/Stock-Analysis/MSFT/MSFT.xlsx
+++ b/Stock-Analysis/MSFT/MSFT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/MSFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{7A6CE446-B20A-4930-B45C-FBB31472D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1998421-61D6-49CB-8AC7-4F266BF3FF5F}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{7A6CE446-B20A-4930-B45C-FBB31472D9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D63191BE-9FEE-4E7D-A98A-2CD976F00B2C}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="IOV" sheetId="4" r:id="rId1"/>
+    <sheet name="Aesop" sheetId="4" r:id="rId1"/>
     <sheet name="Margins" sheetId="2" r:id="rId2"/>
     <sheet name="Growth" sheetId="9" r:id="rId3"/>
     <sheet name="Owner" sheetId="6" r:id="rId4"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8951,7 +8951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0F072-8EE5-43E6-9721-479E2A316DC3}">
   <dimension ref="B2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
